--- a/data/SOAP_trial_t3_upload-MULTITRIAL.xlsx
+++ b/data/SOAP_trial_t3_upload-MULTITRIAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\2025_winter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5FAE1E7-91FE-405C-92CC-C3DBCFFDEEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E234EE-E1D6-44BD-8863-6773F7E8316F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28770" windowHeight="19815" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4613,7 +4613,7 @@
   <dimension ref="A1:Z911"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
